--- a/prototypes/creates/create vault.xlsx
+++ b/prototypes/creates/create vault.xlsx
@@ -1839,7 +1839,7 @@
     <t>Cursed vault - Level 300</t>
   </si>
   <si>
-    <t xml:space="preserve">", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = </t>
+    <t xml:space="preserve">", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = </t>
   </si>
 </sst>
 </file>
@@ -2193,7 +2193,7 @@
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B1" t="str">
         <f>CONCATENATE(C1,D1,E1,F1,G1)</f>
-        <v>{ type = "container", name = "cursed-vault", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 1, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 1, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -2227,7 +2227,7 @@
       </c>
       <c r="B2" t="str">
         <f>CONCATENATE(C2,D2,E2,F2,G2)</f>
-        <v>{ type = "container", name = "cursed-vault-0", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 2, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-0", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 2, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
@@ -2262,7 +2262,7 @@
       </c>
       <c r="B3" t="str">
         <f>CONCATENATE(C3,D3,E3,F3,G3)</f>
-        <v>{ type = "container", name = "cursed-vault-1", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 4, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-1", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 4, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
@@ -2297,7 +2297,7 @@
       </c>
       <c r="B4" t="str">
         <f t="shared" ref="B4:B67" si="1">CONCATENATE(C4,D4,E4,F4,G4)</f>
-        <v>{ type = "container", name = "cursed-vault-2", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 6, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-2", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 6, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C4" t="s">
         <v>0</v>
@@ -2332,7 +2332,7 @@
       </c>
       <c r="B5" t="str">
         <f t="shared" si="1"/>
-        <v>{ type = "container", name = "cursed-vault-3", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 8, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-3", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 8, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C5" t="s">
         <v>0</v>
@@ -2367,7 +2367,7 @@
       </c>
       <c r="B6" t="str">
         <f t="shared" si="1"/>
-        <v>{ type = "container", name = "cursed-vault-4", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 10, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-4", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 10, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C6" t="s">
         <v>0</v>
@@ -2402,7 +2402,7 @@
       </c>
       <c r="B7" t="str">
         <f t="shared" si="1"/>
-        <v>{ type = "container", name = "cursed-vault-5", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 12, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-5", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 12, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C7" t="s">
         <v>0</v>
@@ -2437,7 +2437,7 @@
       </c>
       <c r="B8" t="str">
         <f t="shared" si="1"/>
-        <v>{ type = "container", name = "cursed-vault-6", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 14, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-6", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 14, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C8" t="s">
         <v>0</v>
@@ -2472,7 +2472,7 @@
       </c>
       <c r="B9" t="str">
         <f t="shared" si="1"/>
-        <v>{ type = "container", name = "cursed-vault-7", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 16, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-7", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 16, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C9" t="s">
         <v>0</v>
@@ -2507,7 +2507,7 @@
       </c>
       <c r="B10" t="str">
         <f t="shared" si="1"/>
-        <v>{ type = "container", name = "cursed-vault-8", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 18, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-8", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 18, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C10" t="s">
         <v>0</v>
@@ -2542,7 +2542,7 @@
       </c>
       <c r="B11" t="str">
         <f t="shared" si="1"/>
-        <v>{ type = "container", name = "cursed-vault-9", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 20, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-9", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 20, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C11" t="s">
         <v>0</v>
@@ -2577,7 +2577,7 @@
       </c>
       <c r="B12" t="str">
         <f t="shared" si="1"/>
-        <v>{ type = "container", name = "cursed-vault-10", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 22, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-10", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 22, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C12" t="s">
         <v>0</v>
@@ -2612,7 +2612,7 @@
       </c>
       <c r="B13" t="str">
         <f t="shared" si="1"/>
-        <v>{ type = "container", name = "cursed-vault-11", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 24, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-11", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 24, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C13" t="s">
         <v>0</v>
@@ -2647,7 +2647,7 @@
       </c>
       <c r="B14" t="str">
         <f t="shared" si="1"/>
-        <v>{ type = "container", name = "cursed-vault-12", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 26, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-12", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 26, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C14" t="s">
         <v>0</v>
@@ -2682,7 +2682,7 @@
       </c>
       <c r="B15" t="str">
         <f t="shared" si="1"/>
-        <v>{ type = "container", name = "cursed-vault-13", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 28, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-13", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 28, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C15" t="s">
         <v>0</v>
@@ -2717,7 +2717,7 @@
       </c>
       <c r="B16" t="str">
         <f t="shared" si="1"/>
-        <v>{ type = "container", name = "cursed-vault-14", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 30, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-14", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 30, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C16" t="s">
         <v>0</v>
@@ -2752,7 +2752,7 @@
       </c>
       <c r="B17" t="str">
         <f t="shared" si="1"/>
-        <v>{ type = "container", name = "cursed-vault-15", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 32, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-15", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 32, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C17" t="s">
         <v>0</v>
@@ -2787,7 +2787,7 @@
       </c>
       <c r="B18" t="str">
         <f t="shared" si="1"/>
-        <v>{ type = "container", name = "cursed-vault-16", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 34, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-16", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 34, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C18" t="s">
         <v>0</v>
@@ -2822,7 +2822,7 @@
       </c>
       <c r="B19" t="str">
         <f t="shared" si="1"/>
-        <v>{ type = "container", name = "cursed-vault-17", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 36, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-17", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 36, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C19" t="s">
         <v>0</v>
@@ -2857,7 +2857,7 @@
       </c>
       <c r="B20" t="str">
         <f t="shared" si="1"/>
-        <v>{ type = "container", name = "cursed-vault-18", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 38, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-18", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 38, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C20" t="s">
         <v>0</v>
@@ -2892,7 +2892,7 @@
       </c>
       <c r="B21" t="str">
         <f t="shared" si="1"/>
-        <v>{ type = "container", name = "cursed-vault-19", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 40, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-19", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 40, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C21" t="s">
         <v>0</v>
@@ -2927,7 +2927,7 @@
       </c>
       <c r="B22" t="str">
         <f t="shared" si="1"/>
-        <v>{ type = "container", name = "cursed-vault-20", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 42, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-20", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 42, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C22" t="s">
         <v>0</v>
@@ -2962,7 +2962,7 @@
       </c>
       <c r="B23" t="str">
         <f t="shared" si="1"/>
-        <v>{ type = "container", name = "cursed-vault-21", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 44, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-21", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 44, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C23" t="s">
         <v>0</v>
@@ -2997,7 +2997,7 @@
       </c>
       <c r="B24" t="str">
         <f t="shared" si="1"/>
-        <v>{ type = "container", name = "cursed-vault-22", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 46, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-22", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 46, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C24" t="s">
         <v>0</v>
@@ -3032,7 +3032,7 @@
       </c>
       <c r="B25" t="str">
         <f t="shared" si="1"/>
-        <v>{ type = "container", name = "cursed-vault-23", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 48, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-23", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 48, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C25" t="s">
         <v>0</v>
@@ -3067,7 +3067,7 @@
       </c>
       <c r="B26" t="str">
         <f t="shared" si="1"/>
-        <v>{ type = "container", name = "cursed-vault-24", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 50, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-24", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 50, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C26" t="s">
         <v>0</v>
@@ -3102,7 +3102,7 @@
       </c>
       <c r="B27" t="str">
         <f t="shared" si="1"/>
-        <v>{ type = "container", name = "cursed-vault-25", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 52, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-25", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 52, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C27" t="s">
         <v>0</v>
@@ -3137,7 +3137,7 @@
       </c>
       <c r="B28" t="str">
         <f t="shared" si="1"/>
-        <v>{ type = "container", name = "cursed-vault-26", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 54, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-26", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 54, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C28" t="s">
         <v>0</v>
@@ -3172,7 +3172,7 @@
       </c>
       <c r="B29" t="str">
         <f t="shared" si="1"/>
-        <v>{ type = "container", name = "cursed-vault-27", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 56, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-27", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 56, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C29" t="s">
         <v>0</v>
@@ -3207,7 +3207,7 @@
       </c>
       <c r="B30" t="str">
         <f t="shared" si="1"/>
-        <v>{ type = "container", name = "cursed-vault-28", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 58, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-28", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 58, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C30" t="s">
         <v>0</v>
@@ -3242,7 +3242,7 @@
       </c>
       <c r="B31" t="str">
         <f t="shared" si="1"/>
-        <v>{ type = "container", name = "cursed-vault-29", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 60, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-29", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 60, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C31" t="s">
         <v>0</v>
@@ -3277,7 +3277,7 @@
       </c>
       <c r="B32" t="str">
         <f t="shared" si="1"/>
-        <v>{ type = "container", name = "cursed-vault-30", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 62, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-30", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 62, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C32" t="s">
         <v>0</v>
@@ -3312,7 +3312,7 @@
       </c>
       <c r="B33" t="str">
         <f t="shared" si="1"/>
-        <v>{ type = "container", name = "cursed-vault-31", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 64, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-31", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 64, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C33" t="s">
         <v>0</v>
@@ -3347,7 +3347,7 @@
       </c>
       <c r="B34" t="str">
         <f t="shared" si="1"/>
-        <v>{ type = "container", name = "cursed-vault-32", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 66, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-32", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 66, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C34" t="s">
         <v>0</v>
@@ -3382,7 +3382,7 @@
       </c>
       <c r="B35" t="str">
         <f t="shared" si="1"/>
-        <v>{ type = "container", name = "cursed-vault-33", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 68, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-33", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 68, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C35" t="s">
         <v>0</v>
@@ -3417,7 +3417,7 @@
       </c>
       <c r="B36" t="str">
         <f t="shared" si="1"/>
-        <v>{ type = "container", name = "cursed-vault-34", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 70, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-34", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 70, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C36" t="s">
         <v>0</v>
@@ -3452,7 +3452,7 @@
       </c>
       <c r="B37" t="str">
         <f t="shared" si="1"/>
-        <v>{ type = "container", name = "cursed-vault-35", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 72, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-35", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 72, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C37" t="s">
         <v>0</v>
@@ -3487,7 +3487,7 @@
       </c>
       <c r="B38" t="str">
         <f t="shared" si="1"/>
-        <v>{ type = "container", name = "cursed-vault-36", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 74, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-36", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 74, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C38" t="s">
         <v>0</v>
@@ -3522,7 +3522,7 @@
       </c>
       <c r="B39" t="str">
         <f t="shared" si="1"/>
-        <v>{ type = "container", name = "cursed-vault-37", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 76, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-37", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 76, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C39" t="s">
         <v>0</v>
@@ -3557,7 +3557,7 @@
       </c>
       <c r="B40" t="str">
         <f t="shared" si="1"/>
-        <v>{ type = "container", name = "cursed-vault-38", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 78, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-38", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 78, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C40" t="s">
         <v>0</v>
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B41" t="str">
         <f t="shared" si="1"/>
-        <v>{ type = "container", name = "cursed-vault-39", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 80, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-39", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 80, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C41" t="s">
         <v>0</v>
@@ -3627,7 +3627,7 @@
       </c>
       <c r="B42" t="str">
         <f t="shared" si="1"/>
-        <v>{ type = "container", name = "cursed-vault-40", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 82, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-40", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 82, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C42" t="s">
         <v>0</v>
@@ -3662,7 +3662,7 @@
       </c>
       <c r="B43" t="str">
         <f t="shared" si="1"/>
-        <v>{ type = "container", name = "cursed-vault-41", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 84, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-41", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 84, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C43" t="s">
         <v>0</v>
@@ -3697,7 +3697,7 @@
       </c>
       <c r="B44" t="str">
         <f t="shared" si="1"/>
-        <v>{ type = "container", name = "cursed-vault-42", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 86, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-42", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 86, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C44" t="s">
         <v>0</v>
@@ -3732,7 +3732,7 @@
       </c>
       <c r="B45" t="str">
         <f t="shared" si="1"/>
-        <v>{ type = "container", name = "cursed-vault-43", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 88, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-43", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 88, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C45" t="s">
         <v>0</v>
@@ -3767,7 +3767,7 @@
       </c>
       <c r="B46" t="str">
         <f t="shared" si="1"/>
-        <v>{ type = "container", name = "cursed-vault-44", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 90, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-44", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 90, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C46" t="s">
         <v>0</v>
@@ -3802,7 +3802,7 @@
       </c>
       <c r="B47" t="str">
         <f t="shared" si="1"/>
-        <v>{ type = "container", name = "cursed-vault-45", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 92, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-45", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 92, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C47" t="s">
         <v>0</v>
@@ -3837,7 +3837,7 @@
       </c>
       <c r="B48" t="str">
         <f t="shared" si="1"/>
-        <v>{ type = "container", name = "cursed-vault-46", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 94, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-46", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 94, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C48" t="s">
         <v>0</v>
@@ -3872,7 +3872,7 @@
       </c>
       <c r="B49" t="str">
         <f t="shared" si="1"/>
-        <v>{ type = "container", name = "cursed-vault-47", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 96, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-47", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 96, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C49" t="s">
         <v>0</v>
@@ -3907,7 +3907,7 @@
       </c>
       <c r="B50" t="str">
         <f t="shared" si="1"/>
-        <v>{ type = "container", name = "cursed-vault-48", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 98, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-48", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 98, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C50" t="s">
         <v>0</v>
@@ -3942,7 +3942,7 @@
       </c>
       <c r="B51" t="str">
         <f t="shared" si="1"/>
-        <v>{ type = "container", name = "cursed-vault-49", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 100, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-49", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 100, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C51" t="s">
         <v>0</v>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="B52" t="str">
         <f t="shared" si="1"/>
-        <v>{ type = "container", name = "cursed-vault-50", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 102, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-50", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 102, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C52" t="s">
         <v>0</v>
@@ -4012,7 +4012,7 @@
       </c>
       <c r="B53" t="str">
         <f t="shared" si="1"/>
-        <v>{ type = "container", name = "cursed-vault-51", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 104, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-51", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 104, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C53" t="s">
         <v>0</v>
@@ -4047,7 +4047,7 @@
       </c>
       <c r="B54" t="str">
         <f t="shared" si="1"/>
-        <v>{ type = "container", name = "cursed-vault-52", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 106, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-52", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 106, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C54" t="s">
         <v>0</v>
@@ -4082,7 +4082,7 @@
       </c>
       <c r="B55" t="str">
         <f t="shared" si="1"/>
-        <v>{ type = "container", name = "cursed-vault-53", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 108, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-53", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 108, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C55" t="s">
         <v>0</v>
@@ -4117,7 +4117,7 @@
       </c>
       <c r="B56" t="str">
         <f t="shared" si="1"/>
-        <v>{ type = "container", name = "cursed-vault-54", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 110, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-54", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 110, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C56" t="s">
         <v>0</v>
@@ -4152,7 +4152,7 @@
       </c>
       <c r="B57" t="str">
         <f t="shared" si="1"/>
-        <v>{ type = "container", name = "cursed-vault-55", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 112, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-55", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 112, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C57" t="s">
         <v>0</v>
@@ -4187,7 +4187,7 @@
       </c>
       <c r="B58" t="str">
         <f t="shared" si="1"/>
-        <v>{ type = "container", name = "cursed-vault-56", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 114, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-56", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 114, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C58" t="s">
         <v>0</v>
@@ -4222,7 +4222,7 @@
       </c>
       <c r="B59" t="str">
         <f t="shared" si="1"/>
-        <v>{ type = "container", name = "cursed-vault-57", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 116, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-57", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 116, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C59" t="s">
         <v>0</v>
@@ -4257,7 +4257,7 @@
       </c>
       <c r="B60" t="str">
         <f t="shared" si="1"/>
-        <v>{ type = "container", name = "cursed-vault-58", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 118, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-58", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 118, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C60" t="s">
         <v>0</v>
@@ -4292,7 +4292,7 @@
       </c>
       <c r="B61" t="str">
         <f t="shared" si="1"/>
-        <v>{ type = "container", name = "cursed-vault-59", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 120, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-59", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 120, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C61" t="s">
         <v>0</v>
@@ -4327,7 +4327,7 @@
       </c>
       <c r="B62" t="str">
         <f t="shared" si="1"/>
-        <v>{ type = "container", name = "cursed-vault-60", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 122, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-60", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 122, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C62" t="s">
         <v>0</v>
@@ -4362,7 +4362,7 @@
       </c>
       <c r="B63" t="str">
         <f t="shared" si="1"/>
-        <v>{ type = "container", name = "cursed-vault-61", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 124, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-61", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 124, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C63" t="s">
         <v>0</v>
@@ -4397,7 +4397,7 @@
       </c>
       <c r="B64" t="str">
         <f t="shared" si="1"/>
-        <v>{ type = "container", name = "cursed-vault-62", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 126, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-62", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 126, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C64" t="s">
         <v>0</v>
@@ -4432,7 +4432,7 @@
       </c>
       <c r="B65" t="str">
         <f t="shared" si="1"/>
-        <v>{ type = "container", name = "cursed-vault-63", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 128, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-63", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 128, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C65" t="s">
         <v>0</v>
@@ -4467,7 +4467,7 @@
       </c>
       <c r="B66" t="str">
         <f t="shared" si="1"/>
-        <v>{ type = "container", name = "cursed-vault-64", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 130, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-64", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 130, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C66" t="s">
         <v>0</v>
@@ -4502,7 +4502,7 @@
       </c>
       <c r="B67" t="str">
         <f t="shared" si="1"/>
-        <v>{ type = "container", name = "cursed-vault-65", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 132, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-65", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 132, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C67" t="s">
         <v>0</v>
@@ -4537,7 +4537,7 @@
       </c>
       <c r="B68" t="str">
         <f t="shared" ref="B68:B131" si="4">CONCATENATE(C68,D68,E68,F68,G68)</f>
-        <v>{ type = "container", name = "cursed-vault-66", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 134, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-66", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 134, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C68" t="s">
         <v>0</v>
@@ -4572,7 +4572,7 @@
       </c>
       <c r="B69" t="str">
         <f t="shared" si="4"/>
-        <v>{ type = "container", name = "cursed-vault-67", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 136, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-67", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 136, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C69" t="s">
         <v>0</v>
@@ -4607,7 +4607,7 @@
       </c>
       <c r="B70" t="str">
         <f t="shared" si="4"/>
-        <v>{ type = "container", name = "cursed-vault-68", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 138, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-68", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 138, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C70" t="s">
         <v>0</v>
@@ -4642,7 +4642,7 @@
       </c>
       <c r="B71" t="str">
         <f t="shared" si="4"/>
-        <v>{ type = "container", name = "cursed-vault-69", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 140, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-69", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 140, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C71" t="s">
         <v>0</v>
@@ -4677,7 +4677,7 @@
       </c>
       <c r="B72" t="str">
         <f t="shared" si="4"/>
-        <v>{ type = "container", name = "cursed-vault-70", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 142, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-70", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 142, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C72" t="s">
         <v>0</v>
@@ -4712,7 +4712,7 @@
       </c>
       <c r="B73" t="str">
         <f t="shared" si="4"/>
-        <v>{ type = "container", name = "cursed-vault-71", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 144, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-71", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 144, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C73" t="s">
         <v>0</v>
@@ -4747,7 +4747,7 @@
       </c>
       <c r="B74" t="str">
         <f t="shared" si="4"/>
-        <v>{ type = "container", name = "cursed-vault-72", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 146, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-72", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 146, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C74" t="s">
         <v>0</v>
@@ -4782,7 +4782,7 @@
       </c>
       <c r="B75" t="str">
         <f t="shared" si="4"/>
-        <v>{ type = "container", name = "cursed-vault-73", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 148, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-73", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 148, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C75" t="s">
         <v>0</v>
@@ -4817,7 +4817,7 @@
       </c>
       <c r="B76" t="str">
         <f t="shared" si="4"/>
-        <v>{ type = "container", name = "cursed-vault-74", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 150, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-74", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 150, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C76" t="s">
         <v>0</v>
@@ -4852,7 +4852,7 @@
       </c>
       <c r="B77" t="str">
         <f t="shared" si="4"/>
-        <v>{ type = "container", name = "cursed-vault-75", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 152, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-75", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 152, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C77" t="s">
         <v>0</v>
@@ -4887,7 +4887,7 @@
       </c>
       <c r="B78" t="str">
         <f t="shared" si="4"/>
-        <v>{ type = "container", name = "cursed-vault-76", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 154, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-76", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 154, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C78" t="s">
         <v>0</v>
@@ -4922,7 +4922,7 @@
       </c>
       <c r="B79" t="str">
         <f t="shared" si="4"/>
-        <v>{ type = "container", name = "cursed-vault-77", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 156, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-77", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 156, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C79" t="s">
         <v>0</v>
@@ -4957,7 +4957,7 @@
       </c>
       <c r="B80" t="str">
         <f t="shared" si="4"/>
-        <v>{ type = "container", name = "cursed-vault-78", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 158, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-78", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 158, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C80" t="s">
         <v>0</v>
@@ -4992,7 +4992,7 @@
       </c>
       <c r="B81" t="str">
         <f t="shared" si="4"/>
-        <v>{ type = "container", name = "cursed-vault-79", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 160, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-79", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 160, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C81" t="s">
         <v>0</v>
@@ -5027,7 +5027,7 @@
       </c>
       <c r="B82" t="str">
         <f t="shared" si="4"/>
-        <v>{ type = "container", name = "cursed-vault-80", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 162, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-80", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 162, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C82" t="s">
         <v>0</v>
@@ -5062,7 +5062,7 @@
       </c>
       <c r="B83" t="str">
         <f t="shared" si="4"/>
-        <v>{ type = "container", name = "cursed-vault-81", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 164, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-81", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 164, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C83" t="s">
         <v>0</v>
@@ -5097,7 +5097,7 @@
       </c>
       <c r="B84" t="str">
         <f t="shared" si="4"/>
-        <v>{ type = "container", name = "cursed-vault-82", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 166, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-82", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 166, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C84" t="s">
         <v>0</v>
@@ -5132,7 +5132,7 @@
       </c>
       <c r="B85" t="str">
         <f t="shared" si="4"/>
-        <v>{ type = "container", name = "cursed-vault-83", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 168, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-83", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 168, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C85" t="s">
         <v>0</v>
@@ -5167,7 +5167,7 @@
       </c>
       <c r="B86" t="str">
         <f t="shared" si="4"/>
-        <v>{ type = "container", name = "cursed-vault-84", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 170, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-84", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 170, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C86" t="s">
         <v>0</v>
@@ -5202,7 +5202,7 @@
       </c>
       <c r="B87" t="str">
         <f t="shared" si="4"/>
-        <v>{ type = "container", name = "cursed-vault-85", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 172, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-85", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 172, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C87" t="s">
         <v>0</v>
@@ -5237,7 +5237,7 @@
       </c>
       <c r="B88" t="str">
         <f t="shared" si="4"/>
-        <v>{ type = "container", name = "cursed-vault-86", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 174, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-86", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 174, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C88" t="s">
         <v>0</v>
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B89" t="str">
         <f t="shared" si="4"/>
-        <v>{ type = "container", name = "cursed-vault-87", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 176, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-87", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 176, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C89" t="s">
         <v>0</v>
@@ -5307,7 +5307,7 @@
       </c>
       <c r="B90" t="str">
         <f t="shared" si="4"/>
-        <v>{ type = "container", name = "cursed-vault-88", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 178, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-88", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 178, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C90" t="s">
         <v>0</v>
@@ -5342,7 +5342,7 @@
       </c>
       <c r="B91" t="str">
         <f t="shared" si="4"/>
-        <v>{ type = "container", name = "cursed-vault-89", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 180, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-89", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 180, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C91" t="s">
         <v>0</v>
@@ -5377,7 +5377,7 @@
       </c>
       <c r="B92" t="str">
         <f t="shared" si="4"/>
-        <v>{ type = "container", name = "cursed-vault-90", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 182, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-90", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 182, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C92" t="s">
         <v>0</v>
@@ -5412,7 +5412,7 @@
       </c>
       <c r="B93" t="str">
         <f t="shared" si="4"/>
-        <v>{ type = "container", name = "cursed-vault-91", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 184, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-91", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 184, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C93" t="s">
         <v>0</v>
@@ -5447,7 +5447,7 @@
       </c>
       <c r="B94" t="str">
         <f t="shared" si="4"/>
-        <v>{ type = "container", name = "cursed-vault-92", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 186, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-92", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 186, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C94" t="s">
         <v>0</v>
@@ -5482,7 +5482,7 @@
       </c>
       <c r="B95" t="str">
         <f t="shared" si="4"/>
-        <v>{ type = "container", name = "cursed-vault-93", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 188, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-93", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 188, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C95" t="s">
         <v>0</v>
@@ -5517,7 +5517,7 @@
       </c>
       <c r="B96" t="str">
         <f t="shared" si="4"/>
-        <v>{ type = "container", name = "cursed-vault-94", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 190, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-94", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 190, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C96" t="s">
         <v>0</v>
@@ -5552,7 +5552,7 @@
       </c>
       <c r="B97" t="str">
         <f t="shared" si="4"/>
-        <v>{ type = "container", name = "cursed-vault-95", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 192, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-95", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 192, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C97" t="s">
         <v>0</v>
@@ -5587,7 +5587,7 @@
       </c>
       <c r="B98" t="str">
         <f t="shared" si="4"/>
-        <v>{ type = "container", name = "cursed-vault-96", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 194, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-96", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 194, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C98" t="s">
         <v>0</v>
@@ -5622,7 +5622,7 @@
       </c>
       <c r="B99" t="str">
         <f t="shared" si="4"/>
-        <v>{ type = "container", name = "cursed-vault-97", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 196, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-97", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 196, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C99" t="s">
         <v>0</v>
@@ -5657,7 +5657,7 @@
       </c>
       <c r="B100" t="str">
         <f t="shared" si="4"/>
-        <v>{ type = "container", name = "cursed-vault-98", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 198, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-98", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 198, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C100" t="s">
         <v>0</v>
@@ -5692,7 +5692,7 @@
       </c>
       <c r="B101" t="str">
         <f t="shared" si="4"/>
-        <v>{ type = "container", name = "cursed-vault-99", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 200, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-99", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 200, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C101" t="s">
         <v>0</v>
@@ -5727,7 +5727,7 @@
       </c>
       <c r="B102" t="str">
         <f t="shared" si="4"/>
-        <v>{ type = "container", name = "cursed-vault-100", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 202, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-100", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 202, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C102" t="s">
         <v>0</v>
@@ -5762,7 +5762,7 @@
       </c>
       <c r="B103" t="str">
         <f t="shared" si="4"/>
-        <v>{ type = "container", name = "cursed-vault-101", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 204, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-101", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 204, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C103" t="s">
         <v>0</v>
@@ -5797,7 +5797,7 @@
       </c>
       <c r="B104" t="str">
         <f t="shared" si="4"/>
-        <v>{ type = "container", name = "cursed-vault-102", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 206, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-102", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 206, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C104" t="s">
         <v>0</v>
@@ -5832,7 +5832,7 @@
       </c>
       <c r="B105" t="str">
         <f t="shared" si="4"/>
-        <v>{ type = "container", name = "cursed-vault-103", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 208, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-103", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 208, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C105" t="s">
         <v>0</v>
@@ -5867,7 +5867,7 @@
       </c>
       <c r="B106" t="str">
         <f t="shared" si="4"/>
-        <v>{ type = "container", name = "cursed-vault-104", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 210, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-104", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 210, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C106" t="s">
         <v>0</v>
@@ -5902,7 +5902,7 @@
       </c>
       <c r="B107" t="str">
         <f t="shared" si="4"/>
-        <v>{ type = "container", name = "cursed-vault-105", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 212, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-105", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 212, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C107" t="s">
         <v>0</v>
@@ -5937,7 +5937,7 @@
       </c>
       <c r="B108" t="str">
         <f t="shared" si="4"/>
-        <v>{ type = "container", name = "cursed-vault-106", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 214, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-106", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 214, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C108" t="s">
         <v>0</v>
@@ -5972,7 +5972,7 @@
       </c>
       <c r="B109" t="str">
         <f t="shared" si="4"/>
-        <v>{ type = "container", name = "cursed-vault-107", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 216, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-107", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 216, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C109" t="s">
         <v>0</v>
@@ -6007,7 +6007,7 @@
       </c>
       <c r="B110" t="str">
         <f t="shared" si="4"/>
-        <v>{ type = "container", name = "cursed-vault-108", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 218, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-108", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 218, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C110" t="s">
         <v>0</v>
@@ -6042,7 +6042,7 @@
       </c>
       <c r="B111" t="str">
         <f t="shared" si="4"/>
-        <v>{ type = "container", name = "cursed-vault-109", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 220, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-109", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 220, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C111" t="s">
         <v>0</v>
@@ -6077,7 +6077,7 @@
       </c>
       <c r="B112" t="str">
         <f t="shared" si="4"/>
-        <v>{ type = "container", name = "cursed-vault-110", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 222, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-110", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 222, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C112" t="s">
         <v>0</v>
@@ -6112,7 +6112,7 @@
       </c>
       <c r="B113" t="str">
         <f t="shared" si="4"/>
-        <v>{ type = "container", name = "cursed-vault-111", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 224, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-111", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 224, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C113" t="s">
         <v>0</v>
@@ -6147,7 +6147,7 @@
       </c>
       <c r="B114" t="str">
         <f t="shared" si="4"/>
-        <v>{ type = "container", name = "cursed-vault-112", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 226, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-112", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 226, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C114" t="s">
         <v>0</v>
@@ -6182,7 +6182,7 @@
       </c>
       <c r="B115" t="str">
         <f t="shared" si="4"/>
-        <v>{ type = "container", name = "cursed-vault-113", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 228, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-113", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 228, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C115" t="s">
         <v>0</v>
@@ -6217,7 +6217,7 @@
       </c>
       <c r="B116" t="str">
         <f t="shared" si="4"/>
-        <v>{ type = "container", name = "cursed-vault-114", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 230, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-114", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 230, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C116" t="s">
         <v>0</v>
@@ -6252,7 +6252,7 @@
       </c>
       <c r="B117" t="str">
         <f t="shared" si="4"/>
-        <v>{ type = "container", name = "cursed-vault-115", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 232, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-115", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 232, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C117" t="s">
         <v>0</v>
@@ -6287,7 +6287,7 @@
       </c>
       <c r="B118" t="str">
         <f t="shared" si="4"/>
-        <v>{ type = "container", name = "cursed-vault-116", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 234, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-116", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 234, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C118" t="s">
         <v>0</v>
@@ -6322,7 +6322,7 @@
       </c>
       <c r="B119" t="str">
         <f t="shared" si="4"/>
-        <v>{ type = "container", name = "cursed-vault-117", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 236, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-117", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 236, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C119" t="s">
         <v>0</v>
@@ -6357,7 +6357,7 @@
       </c>
       <c r="B120" t="str">
         <f t="shared" si="4"/>
-        <v>{ type = "container", name = "cursed-vault-118", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 238, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-118", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 238, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C120" t="s">
         <v>0</v>
@@ -6392,7 +6392,7 @@
       </c>
       <c r="B121" t="str">
         <f t="shared" si="4"/>
-        <v>{ type = "container", name = "cursed-vault-119", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 240, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-119", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 240, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C121" t="s">
         <v>0</v>
@@ -6427,7 +6427,7 @@
       </c>
       <c r="B122" t="str">
         <f t="shared" si="4"/>
-        <v>{ type = "container", name = "cursed-vault-120", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 242, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-120", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 242, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C122" t="s">
         <v>0</v>
@@ -6462,7 +6462,7 @@
       </c>
       <c r="B123" t="str">
         <f t="shared" si="4"/>
-        <v>{ type = "container", name = "cursed-vault-121", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 244, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-121", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 244, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C123" t="s">
         <v>0</v>
@@ -6497,7 +6497,7 @@
       </c>
       <c r="B124" t="str">
         <f t="shared" si="4"/>
-        <v>{ type = "container", name = "cursed-vault-122", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 246, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-122", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 246, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C124" t="s">
         <v>0</v>
@@ -6532,7 +6532,7 @@
       </c>
       <c r="B125" t="str">
         <f t="shared" si="4"/>
-        <v>{ type = "container", name = "cursed-vault-123", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 248, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-123", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 248, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C125" t="s">
         <v>0</v>
@@ -6567,7 +6567,7 @@
       </c>
       <c r="B126" t="str">
         <f t="shared" si="4"/>
-        <v>{ type = "container", name = "cursed-vault-124", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 250, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-124", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 250, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C126" t="s">
         <v>0</v>
@@ -6602,7 +6602,7 @@
       </c>
       <c r="B127" t="str">
         <f t="shared" si="4"/>
-        <v>{ type = "container", name = "cursed-vault-125", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 252, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-125", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 252, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C127" t="s">
         <v>0</v>
@@ -6637,7 +6637,7 @@
       </c>
       <c r="B128" t="str">
         <f t="shared" si="4"/>
-        <v>{ type = "container", name = "cursed-vault-126", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 254, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-126", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 254, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C128" t="s">
         <v>0</v>
@@ -6672,7 +6672,7 @@
       </c>
       <c r="B129" t="str">
         <f t="shared" si="4"/>
-        <v>{ type = "container", name = "cursed-vault-127", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 256, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-127", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 256, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C129" t="s">
         <v>0</v>
@@ -6707,7 +6707,7 @@
       </c>
       <c r="B130" t="str">
         <f t="shared" si="4"/>
-        <v>{ type = "container", name = "cursed-vault-128", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 258, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-128", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 258, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C130" t="s">
         <v>0</v>
@@ -6742,7 +6742,7 @@
       </c>
       <c r="B131" t="str">
         <f t="shared" si="4"/>
-        <v>{ type = "container", name = "cursed-vault-129", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 260, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-129", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 260, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C131" t="s">
         <v>0</v>
@@ -6777,7 +6777,7 @@
       </c>
       <c r="B132" t="str">
         <f t="shared" ref="B132:B195" si="7">CONCATENATE(C132,D132,E132,F132,G132)</f>
-        <v>{ type = "container", name = "cursed-vault-130", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 262, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-130", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 262, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C132" t="s">
         <v>0</v>
@@ -6812,7 +6812,7 @@
       </c>
       <c r="B133" t="str">
         <f t="shared" si="7"/>
-        <v>{ type = "container", name = "cursed-vault-131", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 264, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-131", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 264, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C133" t="s">
         <v>0</v>
@@ -6847,7 +6847,7 @@
       </c>
       <c r="B134" t="str">
         <f t="shared" si="7"/>
-        <v>{ type = "container", name = "cursed-vault-132", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 266, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-132", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 266, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C134" t="s">
         <v>0</v>
@@ -6882,7 +6882,7 @@
       </c>
       <c r="B135" t="str">
         <f t="shared" si="7"/>
-        <v>{ type = "container", name = "cursed-vault-133", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 268, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-133", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 268, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C135" t="s">
         <v>0</v>
@@ -6917,7 +6917,7 @@
       </c>
       <c r="B136" t="str">
         <f t="shared" si="7"/>
-        <v>{ type = "container", name = "cursed-vault-134", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 270, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-134", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 270, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C136" t="s">
         <v>0</v>
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B137" t="str">
         <f t="shared" si="7"/>
-        <v>{ type = "container", name = "cursed-vault-135", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 272, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-135", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 272, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C137" t="s">
         <v>0</v>
@@ -6987,7 +6987,7 @@
       </c>
       <c r="B138" t="str">
         <f t="shared" si="7"/>
-        <v>{ type = "container", name = "cursed-vault-136", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 274, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-136", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 274, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C138" t="s">
         <v>0</v>
@@ -7022,7 +7022,7 @@
       </c>
       <c r="B139" t="str">
         <f t="shared" si="7"/>
-        <v>{ type = "container", name = "cursed-vault-137", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 276, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-137", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 276, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C139" t="s">
         <v>0</v>
@@ -7057,7 +7057,7 @@
       </c>
       <c r="B140" t="str">
         <f t="shared" si="7"/>
-        <v>{ type = "container", name = "cursed-vault-138", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 278, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-138", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 278, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C140" t="s">
         <v>0</v>
@@ -7092,7 +7092,7 @@
       </c>
       <c r="B141" t="str">
         <f t="shared" si="7"/>
-        <v>{ type = "container", name = "cursed-vault-139", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 280, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-139", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 280, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C141" t="s">
         <v>0</v>
@@ -7127,7 +7127,7 @@
       </c>
       <c r="B142" t="str">
         <f t="shared" si="7"/>
-        <v>{ type = "container", name = "cursed-vault-140", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 282, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-140", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 282, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C142" t="s">
         <v>0</v>
@@ -7162,7 +7162,7 @@
       </c>
       <c r="B143" t="str">
         <f t="shared" si="7"/>
-        <v>{ type = "container", name = "cursed-vault-141", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 284, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-141", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 284, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C143" t="s">
         <v>0</v>
@@ -7197,7 +7197,7 @@
       </c>
       <c r="B144" t="str">
         <f t="shared" si="7"/>
-        <v>{ type = "container", name = "cursed-vault-142", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 286, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-142", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 286, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C144" t="s">
         <v>0</v>
@@ -7232,7 +7232,7 @@
       </c>
       <c r="B145" t="str">
         <f t="shared" si="7"/>
-        <v>{ type = "container", name = "cursed-vault-143", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 288, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-143", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 288, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C145" t="s">
         <v>0</v>
@@ -7267,7 +7267,7 @@
       </c>
       <c r="B146" t="str">
         <f t="shared" si="7"/>
-        <v>{ type = "container", name = "cursed-vault-144", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 290, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-144", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 290, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C146" t="s">
         <v>0</v>
@@ -7302,7 +7302,7 @@
       </c>
       <c r="B147" t="str">
         <f t="shared" si="7"/>
-        <v>{ type = "container", name = "cursed-vault-145", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 292, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-145", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 292, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C147" t="s">
         <v>0</v>
@@ -7337,7 +7337,7 @@
       </c>
       <c r="B148" t="str">
         <f t="shared" si="7"/>
-        <v>{ type = "container", name = "cursed-vault-146", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 294, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-146", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 294, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C148" t="s">
         <v>0</v>
@@ -7372,7 +7372,7 @@
       </c>
       <c r="B149" t="str">
         <f t="shared" si="7"/>
-        <v>{ type = "container", name = "cursed-vault-147", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 296, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-147", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 296, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C149" t="s">
         <v>0</v>
@@ -7407,7 +7407,7 @@
       </c>
       <c r="B150" t="str">
         <f t="shared" si="7"/>
-        <v>{ type = "container", name = "cursed-vault-148", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 298, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-148", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 298, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C150" t="s">
         <v>0</v>
@@ -7442,7 +7442,7 @@
       </c>
       <c r="B151" t="str">
         <f t="shared" si="7"/>
-        <v>{ type = "container", name = "cursed-vault-149", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 300, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-149", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 300, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C151" t="s">
         <v>0</v>
@@ -7477,7 +7477,7 @@
       </c>
       <c r="B152" t="str">
         <f t="shared" si="7"/>
-        <v>{ type = "container", name = "cursed-vault-150", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 302, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-150", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 302, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C152" t="s">
         <v>0</v>
@@ -7512,7 +7512,7 @@
       </c>
       <c r="B153" t="str">
         <f t="shared" si="7"/>
-        <v>{ type = "container", name = "cursed-vault-151", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 304, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-151", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 304, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C153" t="s">
         <v>0</v>
@@ -7547,7 +7547,7 @@
       </c>
       <c r="B154" t="str">
         <f t="shared" si="7"/>
-        <v>{ type = "container", name = "cursed-vault-152", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 306, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-152", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 306, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C154" t="s">
         <v>0</v>
@@ -7582,7 +7582,7 @@
       </c>
       <c r="B155" t="str">
         <f t="shared" si="7"/>
-        <v>{ type = "container", name = "cursed-vault-153", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 308, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-153", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 308, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C155" t="s">
         <v>0</v>
@@ -7617,7 +7617,7 @@
       </c>
       <c r="B156" t="str">
         <f t="shared" si="7"/>
-        <v>{ type = "container", name = "cursed-vault-154", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 310, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-154", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 310, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C156" t="s">
         <v>0</v>
@@ -7652,7 +7652,7 @@
       </c>
       <c r="B157" t="str">
         <f t="shared" si="7"/>
-        <v>{ type = "container", name = "cursed-vault-155", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 312, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-155", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 312, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C157" t="s">
         <v>0</v>
@@ -7687,7 +7687,7 @@
       </c>
       <c r="B158" t="str">
         <f t="shared" si="7"/>
-        <v>{ type = "container", name = "cursed-vault-156", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 314, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-156", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 314, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C158" t="s">
         <v>0</v>
@@ -7722,7 +7722,7 @@
       </c>
       <c r="B159" t="str">
         <f t="shared" si="7"/>
-        <v>{ type = "container", name = "cursed-vault-157", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 316, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-157", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 316, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C159" t="s">
         <v>0</v>
@@ -7757,7 +7757,7 @@
       </c>
       <c r="B160" t="str">
         <f t="shared" si="7"/>
-        <v>{ type = "container", name = "cursed-vault-158", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 318, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-158", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 318, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C160" t="s">
         <v>0</v>
@@ -7792,7 +7792,7 @@
       </c>
       <c r="B161" t="str">
         <f t="shared" si="7"/>
-        <v>{ type = "container", name = "cursed-vault-159", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 320, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-159", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 320, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C161" t="s">
         <v>0</v>
@@ -7827,7 +7827,7 @@
       </c>
       <c r="B162" t="str">
         <f t="shared" si="7"/>
-        <v>{ type = "container", name = "cursed-vault-160", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 322, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-160", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 322, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C162" t="s">
         <v>0</v>
@@ -7862,7 +7862,7 @@
       </c>
       <c r="B163" t="str">
         <f t="shared" si="7"/>
-        <v>{ type = "container", name = "cursed-vault-161", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 324, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-161", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 324, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C163" t="s">
         <v>0</v>
@@ -7897,7 +7897,7 @@
       </c>
       <c r="B164" t="str">
         <f t="shared" si="7"/>
-        <v>{ type = "container", name = "cursed-vault-162", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 326, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-162", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 326, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C164" t="s">
         <v>0</v>
@@ -7932,7 +7932,7 @@
       </c>
       <c r="B165" t="str">
         <f t="shared" si="7"/>
-        <v>{ type = "container", name = "cursed-vault-163", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 328, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-163", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 328, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C165" t="s">
         <v>0</v>
@@ -7967,7 +7967,7 @@
       </c>
       <c r="B166" t="str">
         <f t="shared" si="7"/>
-        <v>{ type = "container", name = "cursed-vault-164", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 330, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-164", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 330, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C166" t="s">
         <v>0</v>
@@ -8002,7 +8002,7 @@
       </c>
       <c r="B167" t="str">
         <f t="shared" si="7"/>
-        <v>{ type = "container", name = "cursed-vault-165", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 332, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-165", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 332, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C167" t="s">
         <v>0</v>
@@ -8037,7 +8037,7 @@
       </c>
       <c r="B168" t="str">
         <f t="shared" si="7"/>
-        <v>{ type = "container", name = "cursed-vault-166", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 334, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-166", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 334, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C168" t="s">
         <v>0</v>
@@ -8072,7 +8072,7 @@
       </c>
       <c r="B169" t="str">
         <f t="shared" si="7"/>
-        <v>{ type = "container", name = "cursed-vault-167", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 336, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-167", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 336, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C169" t="s">
         <v>0</v>
@@ -8107,7 +8107,7 @@
       </c>
       <c r="B170" t="str">
         <f t="shared" si="7"/>
-        <v>{ type = "container", name = "cursed-vault-168", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 338, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-168", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 338, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C170" t="s">
         <v>0</v>
@@ -8142,7 +8142,7 @@
       </c>
       <c r="B171" t="str">
         <f t="shared" si="7"/>
-        <v>{ type = "container", name = "cursed-vault-169", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 340, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-169", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 340, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C171" t="s">
         <v>0</v>
@@ -8177,7 +8177,7 @@
       </c>
       <c r="B172" t="str">
         <f t="shared" si="7"/>
-        <v>{ type = "container", name = "cursed-vault-170", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 342, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-170", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 342, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C172" t="s">
         <v>0</v>
@@ -8212,7 +8212,7 @@
       </c>
       <c r="B173" t="str">
         <f t="shared" si="7"/>
-        <v>{ type = "container", name = "cursed-vault-171", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 344, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-171", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 344, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C173" t="s">
         <v>0</v>
@@ -8247,7 +8247,7 @@
       </c>
       <c r="B174" t="str">
         <f t="shared" si="7"/>
-        <v>{ type = "container", name = "cursed-vault-172", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 346, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-172", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 346, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C174" t="s">
         <v>0</v>
@@ -8282,7 +8282,7 @@
       </c>
       <c r="B175" t="str">
         <f t="shared" si="7"/>
-        <v>{ type = "container", name = "cursed-vault-173", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 348, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-173", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 348, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C175" t="s">
         <v>0</v>
@@ -8317,7 +8317,7 @@
       </c>
       <c r="B176" t="str">
         <f t="shared" si="7"/>
-        <v>{ type = "container", name = "cursed-vault-174", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 350, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-174", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 350, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C176" t="s">
         <v>0</v>
@@ -8352,7 +8352,7 @@
       </c>
       <c r="B177" t="str">
         <f t="shared" si="7"/>
-        <v>{ type = "container", name = "cursed-vault-175", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 352, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-175", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 352, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C177" t="s">
         <v>0</v>
@@ -8387,7 +8387,7 @@
       </c>
       <c r="B178" t="str">
         <f t="shared" si="7"/>
-        <v>{ type = "container", name = "cursed-vault-176", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 354, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-176", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 354, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C178" t="s">
         <v>0</v>
@@ -8422,7 +8422,7 @@
       </c>
       <c r="B179" t="str">
         <f t="shared" si="7"/>
-        <v>{ type = "container", name = "cursed-vault-177", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 356, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-177", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 356, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C179" t="s">
         <v>0</v>
@@ -8457,7 +8457,7 @@
       </c>
       <c r="B180" t="str">
         <f t="shared" si="7"/>
-        <v>{ type = "container", name = "cursed-vault-178", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 358, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-178", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 358, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C180" t="s">
         <v>0</v>
@@ -8492,7 +8492,7 @@
       </c>
       <c r="B181" t="str">
         <f t="shared" si="7"/>
-        <v>{ type = "container", name = "cursed-vault-179", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 360, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-179", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 360, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C181" t="s">
         <v>0</v>
@@ -8527,7 +8527,7 @@
       </c>
       <c r="B182" t="str">
         <f t="shared" si="7"/>
-        <v>{ type = "container", name = "cursed-vault-180", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 362, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-180", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 362, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C182" t="s">
         <v>0</v>
@@ -8562,7 +8562,7 @@
       </c>
       <c r="B183" t="str">
         <f t="shared" si="7"/>
-        <v>{ type = "container", name = "cursed-vault-181", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 364, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-181", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 364, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C183" t="s">
         <v>0</v>
@@ -8597,7 +8597,7 @@
       </c>
       <c r="B184" t="str">
         <f t="shared" si="7"/>
-        <v>{ type = "container", name = "cursed-vault-182", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 366, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-182", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 366, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C184" t="s">
         <v>0</v>
@@ -8632,7 +8632,7 @@
       </c>
       <c r="B185" t="str">
         <f t="shared" si="7"/>
-        <v>{ type = "container", name = "cursed-vault-183", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 368, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-183", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 368, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C185" t="s">
         <v>0</v>
@@ -8667,7 +8667,7 @@
       </c>
       <c r="B186" t="str">
         <f t="shared" si="7"/>
-        <v>{ type = "container", name = "cursed-vault-184", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 370, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-184", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 370, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C186" t="s">
         <v>0</v>
@@ -8702,7 +8702,7 @@
       </c>
       <c r="B187" t="str">
         <f t="shared" si="7"/>
-        <v>{ type = "container", name = "cursed-vault-185", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 372, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-185", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 372, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C187" t="s">
         <v>0</v>
@@ -8737,7 +8737,7 @@
       </c>
       <c r="B188" t="str">
         <f t="shared" si="7"/>
-        <v>{ type = "container", name = "cursed-vault-186", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 374, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-186", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 374, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C188" t="s">
         <v>0</v>
@@ -8772,7 +8772,7 @@
       </c>
       <c r="B189" t="str">
         <f t="shared" si="7"/>
-        <v>{ type = "container", name = "cursed-vault-187", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 376, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-187", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 376, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C189" t="s">
         <v>0</v>
@@ -8807,7 +8807,7 @@
       </c>
       <c r="B190" t="str">
         <f t="shared" si="7"/>
-        <v>{ type = "container", name = "cursed-vault-188", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 378, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-188", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 378, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C190" t="s">
         <v>0</v>
@@ -8842,7 +8842,7 @@
       </c>
       <c r="B191" t="str">
         <f t="shared" si="7"/>
-        <v>{ type = "container", name = "cursed-vault-189", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 380, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-189", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 380, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C191" t="s">
         <v>0</v>
@@ -8877,7 +8877,7 @@
       </c>
       <c r="B192" t="str">
         <f t="shared" si="7"/>
-        <v>{ type = "container", name = "cursed-vault-190", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 382, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-190", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 382, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C192" t="s">
         <v>0</v>
@@ -8912,7 +8912,7 @@
       </c>
       <c r="B193" t="str">
         <f t="shared" si="7"/>
-        <v>{ type = "container", name = "cursed-vault-191", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 384, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-191", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 384, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C193" t="s">
         <v>0</v>
@@ -8947,7 +8947,7 @@
       </c>
       <c r="B194" t="str">
         <f t="shared" si="7"/>
-        <v>{ type = "container", name = "cursed-vault-192", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 386, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-192", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 386, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C194" t="s">
         <v>0</v>
@@ -8982,7 +8982,7 @@
       </c>
       <c r="B195" t="str">
         <f t="shared" si="7"/>
-        <v>{ type = "container", name = "cursed-vault-193", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 388, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-193", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 388, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C195" t="s">
         <v>0</v>
@@ -9017,7 +9017,7 @@
       </c>
       <c r="B196" t="str">
         <f t="shared" ref="B196:B259" si="10">CONCATENATE(C196,D196,E196,F196,G196)</f>
-        <v>{ type = "container", name = "cursed-vault-194", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 390, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-194", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 390, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C196" t="s">
         <v>0</v>
@@ -9052,7 +9052,7 @@
       </c>
       <c r="B197" t="str">
         <f t="shared" si="10"/>
-        <v>{ type = "container", name = "cursed-vault-195", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 392, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-195", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 392, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C197" t="s">
         <v>0</v>
@@ -9087,7 +9087,7 @@
       </c>
       <c r="B198" t="str">
         <f t="shared" si="10"/>
-        <v>{ type = "container", name = "cursed-vault-196", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 394, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-196", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 394, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C198" t="s">
         <v>0</v>
@@ -9122,7 +9122,7 @@
       </c>
       <c r="B199" t="str">
         <f t="shared" si="10"/>
-        <v>{ type = "container", name = "cursed-vault-197", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 396, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-197", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 396, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C199" t="s">
         <v>0</v>
@@ -9157,7 +9157,7 @@
       </c>
       <c r="B200" t="str">
         <f t="shared" si="10"/>
-        <v>{ type = "container", name = "cursed-vault-198", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 398, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-198", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 398, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C200" t="s">
         <v>0</v>
@@ -9192,7 +9192,7 @@
       </c>
       <c r="B201" t="str">
         <f t="shared" si="10"/>
-        <v>{ type = "container", name = "cursed-vault-199", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 400, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-199", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 400, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C201" t="s">
         <v>0</v>
@@ -9227,7 +9227,7 @@
       </c>
       <c r="B202" t="str">
         <f t="shared" si="10"/>
-        <v>{ type = "container", name = "cursed-vault-200", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 402, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-200", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 402, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C202" t="s">
         <v>0</v>
@@ -9262,7 +9262,7 @@
       </c>
       <c r="B203" t="str">
         <f t="shared" si="10"/>
-        <v>{ type = "container", name = "cursed-vault-201", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 404, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-201", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 404, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C203" t="s">
         <v>0</v>
@@ -9297,7 +9297,7 @@
       </c>
       <c r="B204" t="str">
         <f t="shared" si="10"/>
-        <v>{ type = "container", name = "cursed-vault-202", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 406, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-202", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 406, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C204" t="s">
         <v>0</v>
@@ -9332,7 +9332,7 @@
       </c>
       <c r="B205" t="str">
         <f t="shared" si="10"/>
-        <v>{ type = "container", name = "cursed-vault-203", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 408, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-203", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 408, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C205" t="s">
         <v>0</v>
@@ -9367,7 +9367,7 @@
       </c>
       <c r="B206" t="str">
         <f t="shared" si="10"/>
-        <v>{ type = "container", name = "cursed-vault-204", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 410, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-204", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 410, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C206" t="s">
         <v>0</v>
@@ -9402,7 +9402,7 @@
       </c>
       <c r="B207" t="str">
         <f t="shared" si="10"/>
-        <v>{ type = "container", name = "cursed-vault-205", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 412, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-205", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 412, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C207" t="s">
         <v>0</v>
@@ -9437,7 +9437,7 @@
       </c>
       <c r="B208" t="str">
         <f t="shared" si="10"/>
-        <v>{ type = "container", name = "cursed-vault-206", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 414, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-206", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 414, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C208" t="s">
         <v>0</v>
@@ -9472,7 +9472,7 @@
       </c>
       <c r="B209" t="str">
         <f t="shared" si="10"/>
-        <v>{ type = "container", name = "cursed-vault-207", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 416, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-207", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 416, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C209" t="s">
         <v>0</v>
@@ -9507,7 +9507,7 @@
       </c>
       <c r="B210" t="str">
         <f t="shared" si="10"/>
-        <v>{ type = "container", name = "cursed-vault-208", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 418, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-208", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 418, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C210" t="s">
         <v>0</v>
@@ -9542,7 +9542,7 @@
       </c>
       <c r="B211" t="str">
         <f t="shared" si="10"/>
-        <v>{ type = "container", name = "cursed-vault-209", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 420, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-209", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 420, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C211" t="s">
         <v>0</v>
@@ -9577,7 +9577,7 @@
       </c>
       <c r="B212" t="str">
         <f t="shared" si="10"/>
-        <v>{ type = "container", name = "cursed-vault-210", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 422, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-210", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 422, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C212" t="s">
         <v>0</v>
@@ -9612,7 +9612,7 @@
       </c>
       <c r="B213" t="str">
         <f t="shared" si="10"/>
-        <v>{ type = "container", name = "cursed-vault-211", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 424, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-211", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 424, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C213" t="s">
         <v>0</v>
@@ -9647,7 +9647,7 @@
       </c>
       <c r="B214" t="str">
         <f t="shared" si="10"/>
-        <v>{ type = "container", name = "cursed-vault-212", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 426, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-212", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 426, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C214" t="s">
         <v>0</v>
@@ -9682,7 +9682,7 @@
       </c>
       <c r="B215" t="str">
         <f t="shared" si="10"/>
-        <v>{ type = "container", name = "cursed-vault-213", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 428, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-213", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 428, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C215" t="s">
         <v>0</v>
@@ -9717,7 +9717,7 @@
       </c>
       <c r="B216" t="str">
         <f t="shared" si="10"/>
-        <v>{ type = "container", name = "cursed-vault-214", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 430, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-214", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 430, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C216" t="s">
         <v>0</v>
@@ -9752,7 +9752,7 @@
       </c>
       <c r="B217" t="str">
         <f t="shared" si="10"/>
-        <v>{ type = "container", name = "cursed-vault-215", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 432, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-215", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 432, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C217" t="s">
         <v>0</v>
@@ -9787,7 +9787,7 @@
       </c>
       <c r="B218" t="str">
         <f t="shared" si="10"/>
-        <v>{ type = "container", name = "cursed-vault-216", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 434, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-216", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 434, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C218" t="s">
         <v>0</v>
@@ -9822,7 +9822,7 @@
       </c>
       <c r="B219" t="str">
         <f t="shared" si="10"/>
-        <v>{ type = "container", name = "cursed-vault-217", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 436, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-217", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 436, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C219" t="s">
         <v>0</v>
@@ -9857,7 +9857,7 @@
       </c>
       <c r="B220" t="str">
         <f t="shared" si="10"/>
-        <v>{ type = "container", name = "cursed-vault-218", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 438, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-218", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 438, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C220" t="s">
         <v>0</v>
@@ -9892,7 +9892,7 @@
       </c>
       <c r="B221" t="str">
         <f t="shared" si="10"/>
-        <v>{ type = "container", name = "cursed-vault-219", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 440, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-219", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 440, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C221" t="s">
         <v>0</v>
@@ -9927,7 +9927,7 @@
       </c>
       <c r="B222" t="str">
         <f t="shared" si="10"/>
-        <v>{ type = "container", name = "cursed-vault-220", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 442, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-220", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 442, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C222" t="s">
         <v>0</v>
@@ -9962,7 +9962,7 @@
       </c>
       <c r="B223" t="str">
         <f t="shared" si="10"/>
-        <v>{ type = "container", name = "cursed-vault-221", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 444, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-221", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 444, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C223" t="s">
         <v>0</v>
@@ -9997,7 +9997,7 @@
       </c>
       <c r="B224" t="str">
         <f t="shared" si="10"/>
-        <v>{ type = "container", name = "cursed-vault-222", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 446, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-222", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 446, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C224" t="s">
         <v>0</v>
@@ -10032,7 +10032,7 @@
       </c>
       <c r="B225" t="str">
         <f t="shared" si="10"/>
-        <v>{ type = "container", name = "cursed-vault-223", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 448, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-223", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 448, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C225" t="s">
         <v>0</v>
@@ -10067,7 +10067,7 @@
       </c>
       <c r="B226" t="str">
         <f t="shared" si="10"/>
-        <v>{ type = "container", name = "cursed-vault-224", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 450, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-224", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 450, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C226" t="s">
         <v>0</v>
@@ -10102,7 +10102,7 @@
       </c>
       <c r="B227" t="str">
         <f t="shared" si="10"/>
-        <v>{ type = "container", name = "cursed-vault-225", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 452, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-225", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 452, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C227" t="s">
         <v>0</v>
@@ -10137,7 +10137,7 @@
       </c>
       <c r="B228" t="str">
         <f t="shared" si="10"/>
-        <v>{ type = "container", name = "cursed-vault-226", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 454, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-226", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 454, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C228" t="s">
         <v>0</v>
@@ -10172,7 +10172,7 @@
       </c>
       <c r="B229" t="str">
         <f t="shared" si="10"/>
-        <v>{ type = "container", name = "cursed-vault-227", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 456, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-227", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 456, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C229" t="s">
         <v>0</v>
@@ -10207,7 +10207,7 @@
       </c>
       <c r="B230" t="str">
         <f t="shared" si="10"/>
-        <v>{ type = "container", name = "cursed-vault-228", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 458, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-228", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 458, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C230" t="s">
         <v>0</v>
@@ -10242,7 +10242,7 @@
       </c>
       <c r="B231" t="str">
         <f t="shared" si="10"/>
-        <v>{ type = "container", name = "cursed-vault-229", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 460, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-229", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 460, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C231" t="s">
         <v>0</v>
@@ -10277,7 +10277,7 @@
       </c>
       <c r="B232" t="str">
         <f t="shared" si="10"/>
-        <v>{ type = "container", name = "cursed-vault-230", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 462, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-230", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 462, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C232" t="s">
         <v>0</v>
@@ -10312,7 +10312,7 @@
       </c>
       <c r="B233" t="str">
         <f t="shared" si="10"/>
-        <v>{ type = "container", name = "cursed-vault-231", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 464, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-231", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 464, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C233" t="s">
         <v>0</v>
@@ -10347,7 +10347,7 @@
       </c>
       <c r="B234" t="str">
         <f t="shared" si="10"/>
-        <v>{ type = "container", name = "cursed-vault-232", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 466, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-232", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 466, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C234" t="s">
         <v>0</v>
@@ -10382,7 +10382,7 @@
       </c>
       <c r="B235" t="str">
         <f t="shared" si="10"/>
-        <v>{ type = "container", name = "cursed-vault-233", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 468, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-233", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 468, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C235" t="s">
         <v>0</v>
@@ -10417,7 +10417,7 @@
       </c>
       <c r="B236" t="str">
         <f t="shared" si="10"/>
-        <v>{ type = "container", name = "cursed-vault-234", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 470, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-234", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 470, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C236" t="s">
         <v>0</v>
@@ -10452,7 +10452,7 @@
       </c>
       <c r="B237" t="str">
         <f t="shared" si="10"/>
-        <v>{ type = "container", name = "cursed-vault-235", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 472, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-235", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 472, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C237" t="s">
         <v>0</v>
@@ -10487,7 +10487,7 @@
       </c>
       <c r="B238" t="str">
         <f t="shared" si="10"/>
-        <v>{ type = "container", name = "cursed-vault-236", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 474, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-236", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 474, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C238" t="s">
         <v>0</v>
@@ -10522,7 +10522,7 @@
       </c>
       <c r="B239" t="str">
         <f t="shared" si="10"/>
-        <v>{ type = "container", name = "cursed-vault-237", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 476, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-237", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 476, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C239" t="s">
         <v>0</v>
@@ -10557,7 +10557,7 @@
       </c>
       <c r="B240" t="str">
         <f t="shared" si="10"/>
-        <v>{ type = "container", name = "cursed-vault-238", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 478, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-238", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 478, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C240" t="s">
         <v>0</v>
@@ -10592,7 +10592,7 @@
       </c>
       <c r="B241" t="str">
         <f t="shared" si="10"/>
-        <v>{ type = "container", name = "cursed-vault-239", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 480, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-239", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 480, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C241" t="s">
         <v>0</v>
@@ -10627,7 +10627,7 @@
       </c>
       <c r="B242" t="str">
         <f t="shared" si="10"/>
-        <v>{ type = "container", name = "cursed-vault-240", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 482, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-240", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 482, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C242" t="s">
         <v>0</v>
@@ -10662,7 +10662,7 @@
       </c>
       <c r="B243" t="str">
         <f t="shared" si="10"/>
-        <v>{ type = "container", name = "cursed-vault-241", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 484, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-241", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 484, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C243" t="s">
         <v>0</v>
@@ -10697,7 +10697,7 @@
       </c>
       <c r="B244" t="str">
         <f t="shared" si="10"/>
-        <v>{ type = "container", name = "cursed-vault-242", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 486, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-242", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 486, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C244" t="s">
         <v>0</v>
@@ -10732,7 +10732,7 @@
       </c>
       <c r="B245" t="str">
         <f t="shared" si="10"/>
-        <v>{ type = "container", name = "cursed-vault-243", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 488, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-243", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 488, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C245" t="s">
         <v>0</v>
@@ -10767,7 +10767,7 @@
       </c>
       <c r="B246" t="str">
         <f t="shared" si="10"/>
-        <v>{ type = "container", name = "cursed-vault-244", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 490, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-244", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 490, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C246" t="s">
         <v>0</v>
@@ -10802,7 +10802,7 @@
       </c>
       <c r="B247" t="str">
         <f t="shared" si="10"/>
-        <v>{ type = "container", name = "cursed-vault-245", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 492, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-245", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 492, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C247" t="s">
         <v>0</v>
@@ -10837,7 +10837,7 @@
       </c>
       <c r="B248" t="str">
         <f t="shared" si="10"/>
-        <v>{ type = "container", name = "cursed-vault-246", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 494, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-246", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 494, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C248" t="s">
         <v>0</v>
@@ -10872,7 +10872,7 @@
       </c>
       <c r="B249" t="str">
         <f t="shared" si="10"/>
-        <v>{ type = "container", name = "cursed-vault-247", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 496, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-247", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 496, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C249" t="s">
         <v>0</v>
@@ -10907,7 +10907,7 @@
       </c>
       <c r="B250" t="str">
         <f t="shared" si="10"/>
-        <v>{ type = "container", name = "cursed-vault-248", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 498, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-248", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 498, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C250" t="s">
         <v>0</v>
@@ -10942,7 +10942,7 @@
       </c>
       <c r="B251" t="str">
         <f t="shared" si="10"/>
-        <v>{ type = "container", name = "cursed-vault-249", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 500, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-249", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 500, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C251" t="s">
         <v>0</v>
@@ -10977,7 +10977,7 @@
       </c>
       <c r="B252" t="str">
         <f t="shared" si="10"/>
-        <v>{ type = "container", name = "cursed-vault-250", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 502, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-250", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 502, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C252" t="s">
         <v>0</v>
@@ -11012,7 +11012,7 @@
       </c>
       <c r="B253" t="str">
         <f t="shared" si="10"/>
-        <v>{ type = "container", name = "cursed-vault-251", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 504, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-251", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 504, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C253" t="s">
         <v>0</v>
@@ -11047,7 +11047,7 @@
       </c>
       <c r="B254" t="str">
         <f t="shared" si="10"/>
-        <v>{ type = "container", name = "cursed-vault-252", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 506, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-252", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 506, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C254" t="s">
         <v>0</v>
@@ -11082,7 +11082,7 @@
       </c>
       <c r="B255" t="str">
         <f t="shared" si="10"/>
-        <v>{ type = "container", name = "cursed-vault-253", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 508, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-253", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 508, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C255" t="s">
         <v>0</v>
@@ -11117,7 +11117,7 @@
       </c>
       <c r="B256" t="str">
         <f t="shared" si="10"/>
-        <v>{ type = "container", name = "cursed-vault-254", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 510, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-254", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 510, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C256" t="s">
         <v>0</v>
@@ -11152,7 +11152,7 @@
       </c>
       <c r="B257" t="str">
         <f t="shared" si="10"/>
-        <v>{ type = "container", name = "cursed-vault-255", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 512, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-255", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 512, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C257" t="s">
         <v>0</v>
@@ -11187,7 +11187,7 @@
       </c>
       <c r="B258" t="str">
         <f t="shared" si="10"/>
-        <v>{ type = "container", name = "cursed-vault-256", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 514, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-256", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 514, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C258" t="s">
         <v>0</v>
@@ -11222,7 +11222,7 @@
       </c>
       <c r="B259" t="str">
         <f t="shared" si="10"/>
-        <v>{ type = "container", name = "cursed-vault-257", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 516, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-257", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 516, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C259" t="s">
         <v>0</v>
@@ -11257,7 +11257,7 @@
       </c>
       <c r="B260" t="str">
         <f t="shared" ref="B260:B301" si="13">CONCATENATE(C260,D260,E260,F260,G260)</f>
-        <v>{ type = "container", name = "cursed-vault-258", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 518, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-258", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 518, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C260" t="s">
         <v>0</v>
@@ -11292,7 +11292,7 @@
       </c>
       <c r="B261" t="str">
         <f t="shared" si="13"/>
-        <v>{ type = "container", name = "cursed-vault-259", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 520, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-259", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 520, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C261" t="s">
         <v>0</v>
@@ -11327,7 +11327,7 @@
       </c>
       <c r="B262" t="str">
         <f t="shared" si="13"/>
-        <v>{ type = "container", name = "cursed-vault-260", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 522, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-260", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 522, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C262" t="s">
         <v>0</v>
@@ -11362,7 +11362,7 @@
       </c>
       <c r="B263" t="str">
         <f t="shared" si="13"/>
-        <v>{ type = "container", name = "cursed-vault-261", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 524, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-261", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 524, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C263" t="s">
         <v>0</v>
@@ -11397,7 +11397,7 @@
       </c>
       <c r="B264" t="str">
         <f t="shared" si="13"/>
-        <v>{ type = "container", name = "cursed-vault-262", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 526, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-262", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 526, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C264" t="s">
         <v>0</v>
@@ -11432,7 +11432,7 @@
       </c>
       <c r="B265" t="str">
         <f t="shared" si="13"/>
-        <v>{ type = "container", name = "cursed-vault-263", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 528, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-263", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 528, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C265" t="s">
         <v>0</v>
@@ -11467,7 +11467,7 @@
       </c>
       <c r="B266" t="str">
         <f t="shared" si="13"/>
-        <v>{ type = "container", name = "cursed-vault-264", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 530, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-264", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 530, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C266" t="s">
         <v>0</v>
@@ -11502,7 +11502,7 @@
       </c>
       <c r="B267" t="str">
         <f t="shared" si="13"/>
-        <v>{ type = "container", name = "cursed-vault-265", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 532, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-265", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 532, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C267" t="s">
         <v>0</v>
@@ -11537,7 +11537,7 @@
       </c>
       <c r="B268" t="str">
         <f t="shared" si="13"/>
-        <v>{ type = "container", name = "cursed-vault-266", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 534, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-266", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 534, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C268" t="s">
         <v>0</v>
@@ -11572,7 +11572,7 @@
       </c>
       <c r="B269" t="str">
         <f t="shared" si="13"/>
-        <v>{ type = "container", name = "cursed-vault-267", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 536, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-267", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 536, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C269" t="s">
         <v>0</v>
@@ -11607,7 +11607,7 @@
       </c>
       <c r="B270" t="str">
         <f t="shared" si="13"/>
-        <v>{ type = "container", name = "cursed-vault-268", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 538, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-268", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 538, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C270" t="s">
         <v>0</v>
@@ -11642,7 +11642,7 @@
       </c>
       <c r="B271" t="str">
         <f t="shared" si="13"/>
-        <v>{ type = "container", name = "cursed-vault-269", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 540, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-269", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 540, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C271" t="s">
         <v>0</v>
@@ -11677,7 +11677,7 @@
       </c>
       <c r="B272" t="str">
         <f t="shared" si="13"/>
-        <v>{ type = "container", name = "cursed-vault-270", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 542, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-270", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 542, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C272" t="s">
         <v>0</v>
@@ -11712,7 +11712,7 @@
       </c>
       <c r="B273" t="str">
         <f t="shared" si="13"/>
-        <v>{ type = "container", name = "cursed-vault-271", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 544, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-271", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 544, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C273" t="s">
         <v>0</v>
@@ -11747,7 +11747,7 @@
       </c>
       <c r="B274" t="str">
         <f t="shared" si="13"/>
-        <v>{ type = "container", name = "cursed-vault-272", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 546, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-272", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 546, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C274" t="s">
         <v>0</v>
@@ -11782,7 +11782,7 @@
       </c>
       <c r="B275" t="str">
         <f t="shared" si="13"/>
-        <v>{ type = "container", name = "cursed-vault-273", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 548, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-273", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 548, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C275" t="s">
         <v>0</v>
@@ -11817,7 +11817,7 @@
       </c>
       <c r="B276" t="str">
         <f t="shared" si="13"/>
-        <v>{ type = "container", name = "cursed-vault-274", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 550, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-274", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 550, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C276" t="s">
         <v>0</v>
@@ -11852,7 +11852,7 @@
       </c>
       <c r="B277" t="str">
         <f t="shared" si="13"/>
-        <v>{ type = "container", name = "cursed-vault-275", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 552, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-275", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 552, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C277" t="s">
         <v>0</v>
@@ -11887,7 +11887,7 @@
       </c>
       <c r="B278" t="str">
         <f t="shared" si="13"/>
-        <v>{ type = "container", name = "cursed-vault-276", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 554, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-276", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 554, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C278" t="s">
         <v>0</v>
@@ -11922,7 +11922,7 @@
       </c>
       <c r="B279" t="str">
         <f t="shared" si="13"/>
-        <v>{ type = "container", name = "cursed-vault-277", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 556, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-277", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 556, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C279" t="s">
         <v>0</v>
@@ -11957,7 +11957,7 @@
       </c>
       <c r="B280" t="str">
         <f t="shared" si="13"/>
-        <v>{ type = "container", name = "cursed-vault-278", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 558, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-278", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 558, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C280" t="s">
         <v>0</v>
@@ -11992,7 +11992,7 @@
       </c>
       <c r="B281" t="str">
         <f t="shared" si="13"/>
-        <v>{ type = "container", name = "cursed-vault-279", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 560, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-279", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 560, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C281" t="s">
         <v>0</v>
@@ -12027,7 +12027,7 @@
       </c>
       <c r="B282" t="str">
         <f t="shared" si="13"/>
-        <v>{ type = "container", name = "cursed-vault-280", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 562, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-280", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 562, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C282" t="s">
         <v>0</v>
@@ -12062,7 +12062,7 @@
       </c>
       <c r="B283" t="str">
         <f t="shared" si="13"/>
-        <v>{ type = "container", name = "cursed-vault-281", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 564, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-281", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 564, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C283" t="s">
         <v>0</v>
@@ -12097,7 +12097,7 @@
       </c>
       <c r="B284" t="str">
         <f t="shared" si="13"/>
-        <v>{ type = "container", name = "cursed-vault-282", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 566, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-282", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 566, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C284" t="s">
         <v>0</v>
@@ -12132,7 +12132,7 @@
       </c>
       <c r="B285" t="str">
         <f t="shared" si="13"/>
-        <v>{ type = "container", name = "cursed-vault-283", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 568, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-283", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 568, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C285" t="s">
         <v>0</v>
@@ -12167,7 +12167,7 @@
       </c>
       <c r="B286" t="str">
         <f t="shared" si="13"/>
-        <v>{ type = "container", name = "cursed-vault-284", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 570, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-284", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 570, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C286" t="s">
         <v>0</v>
@@ -12202,7 +12202,7 @@
       </c>
       <c r="B287" t="str">
         <f t="shared" si="13"/>
-        <v>{ type = "container", name = "cursed-vault-285", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 572, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-285", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 572, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C287" t="s">
         <v>0</v>
@@ -12237,7 +12237,7 @@
       </c>
       <c r="B288" t="str">
         <f t="shared" si="13"/>
-        <v>{ type = "container", name = "cursed-vault-286", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 574, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-286", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 574, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C288" t="s">
         <v>0</v>
@@ -12272,7 +12272,7 @@
       </c>
       <c r="B289" t="str">
         <f t="shared" si="13"/>
-        <v>{ type = "container", name = "cursed-vault-287", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 576, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-287", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 576, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C289" t="s">
         <v>0</v>
@@ -12307,7 +12307,7 @@
       </c>
       <c r="B290" t="str">
         <f t="shared" si="13"/>
-        <v>{ type = "container", name = "cursed-vault-288", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 578, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-288", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 578, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C290" t="s">
         <v>0</v>
@@ -12342,7 +12342,7 @@
       </c>
       <c r="B291" t="str">
         <f t="shared" si="13"/>
-        <v>{ type = "container", name = "cursed-vault-289", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 580, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-289", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 580, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C291" t="s">
         <v>0</v>
@@ -12377,7 +12377,7 @@
       </c>
       <c r="B292" t="str">
         <f t="shared" si="13"/>
-        <v>{ type = "container", name = "cursed-vault-290", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 582, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-290", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 582, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C292" t="s">
         <v>0</v>
@@ -12412,7 +12412,7 @@
       </c>
       <c r="B293" t="str">
         <f t="shared" si="13"/>
-        <v>{ type = "container", name = "cursed-vault-291", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 584, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-291", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 584, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C293" t="s">
         <v>0</v>
@@ -12447,7 +12447,7 @@
       </c>
       <c r="B294" t="str">
         <f t="shared" si="13"/>
-        <v>{ type = "container", name = "cursed-vault-292", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 586, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-292", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 586, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C294" t="s">
         <v>0</v>
@@ -12482,7 +12482,7 @@
       </c>
       <c r="B295" t="str">
         <f t="shared" si="13"/>
-        <v>{ type = "container", name = "cursed-vault-293", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 588, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-293", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 588, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C295" t="s">
         <v>0</v>
@@ -12517,7 +12517,7 @@
       </c>
       <c r="B296" t="str">
         <f t="shared" si="13"/>
-        <v>{ type = "container", name = "cursed-vault-294", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 590, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-294", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 590, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C296" t="s">
         <v>0</v>
@@ -12552,7 +12552,7 @@
       </c>
       <c r="B297" t="str">
         <f t="shared" si="13"/>
-        <v>{ type = "container", name = "cursed-vault-295", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 592, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-295", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 592, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C297" t="s">
         <v>0</v>
@@ -12587,7 +12587,7 @@
       </c>
       <c r="B298" t="str">
         <f t="shared" si="13"/>
-        <v>{ type = "container", name = "cursed-vault-296", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 594, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-296", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 594, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C298" t="s">
         <v>0</v>
@@ -12622,7 +12622,7 @@
       </c>
       <c r="B299" t="str">
         <f t="shared" si="13"/>
-        <v>{ type = "container", name = "cursed-vault-297", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 596, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-297", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 596, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C299" t="s">
         <v>0</v>
@@ -12657,7 +12657,7 @@
       </c>
       <c r="B300" t="str">
         <f t="shared" si="13"/>
-        <v>{ type = "container", name = "cursed-vault-298", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 598, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-298", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 598, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C300" t="s">
         <v>0</v>
@@ -12692,7 +12692,7 @@
       </c>
       <c r="B301" t="str">
         <f t="shared" si="13"/>
-        <v>{ type = "container", name = "cursed-vault-299", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 600, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-299", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 600, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C301" t="s">
         <v>0</v>
@@ -12727,7 +12727,7 @@
       </c>
       <c r="B302" t="str">
         <f t="shared" ref="B302" si="15">CONCATENATE(C302,D302,E302,F302,G302)</f>
-        <v>{ type = "container", name = "cursed-vault-300", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, minable = {mining_time = 50}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 602, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
+        <v>{ type = "container", name = "cursed-vault-300", icon = "__Cursed-Exp__/graphics/icons/vault/cursed-vault.png", flags = {"placeable-neutral", "player-creation"}, max_health = 500, corpse = "small-remnants", fast_replaceable_group = "container", collision_box = {{-0.35, -0.35}, {0.35, 0.35}}, selection_box = {{-0.5, -0.5}, {0.5, 0.5}}, inventory_size = 602, order = "c[cursed]-v[vault]", picture = { filename = "__Cursed-Exp__/graphics/entities/vault/cursed-vault.png", priority = "extra-high", width = 46, height = 33, shift = {0.3, 0} } },</v>
       </c>
       <c r="C302" t="s">
         <v>0</v>
